--- a/member/design/画面遷移図.xlsx
+++ b/member/design/画面遷移図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ytaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1282A6F9-B37C-4B58-99EB-54F9FC7601A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBE75BF-C608-4624-B37A-142F5D9CC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="7650" windowHeight="8730" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,6 +374,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -386,16 +395,19 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,24 +419,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,7 +428,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,16 +531,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -566,7 +566,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5581650"/>
+          <a:off x="7124700" y="771525"/>
           <a:ext cx="2162175" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -578,23 +578,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F667E7-E9E3-8BBA-2972-59852254A025}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A505B06C-BA82-9625-E9C2-B427A2AB1A7C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{56FF88A2-9C48-4F8B-8337-AD7B1BC7CD3F}"/>
@@ -613,8 +613,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="914400"/>
-          <a:ext cx="8362950" cy="3876675"/>
+          <a:off x="0" y="5429250"/>
+          <a:ext cx="9020175" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EEF754-965C-C625-17D6-47C871980420}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A505B06C-BA82-9625-E9C2-B427A2AB1A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1304925"/>
+          <a:ext cx="9048750" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A46B77C-8CAF-4120-AEC1-72434039BFF0}">
-  <dimension ref="A1:BF29"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE35" sqref="AE35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CF4" sqref="CF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -946,144 +993,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="20" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="22"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
       <c r="AJ1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="19" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="15" t="s">
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="18">
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="15">
         <v>45206</v>
       </c>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="27" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="17" t="s">
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1">
       <c r="A4" s="2"/>
@@ -1151,32 +1198,32 @@
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="P6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="P6" s="11"/>
       <c r="BF6" s="6"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="P7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="13"/>
       <c r="BF7" s="6"/>
     </row>
     <row r="8" spans="1:58" ht="15" customHeight="1">
@@ -1256,67 +1303,157 @@
       <c r="BF26" s="6"/>
     </row>
     <row r="27" spans="1:58" ht="15" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="12"/>
-      <c r="BE27" s="12"/>
-      <c r="BF27" s="13"/>
+      <c r="A27" s="5"/>
+      <c r="BF27" s="6"/>
+    </row>
+    <row r="28" spans="1:58" ht="15" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="BF28" s="6"/>
     </row>
     <row r="29" spans="1:58" ht="15" customHeight="1">
+      <c r="A29" s="5"/>
       <c r="AR29" s="14"/>
+      <c r="BF29" s="6"/>
+    </row>
+    <row r="30" spans="1:58" ht="15" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="BF30" s="6"/>
+    </row>
+    <row r="31" spans="1:58" ht="15" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="BF31" s="6"/>
+    </row>
+    <row r="32" spans="1:58" ht="15" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="BF32" s="6"/>
+    </row>
+    <row r="33" spans="1:58" ht="15" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="BF33" s="6"/>
+    </row>
+    <row r="34" spans="1:58" ht="15" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="BF34" s="6"/>
+    </row>
+    <row r="35" spans="1:58" ht="15" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="BF35" s="6"/>
+    </row>
+    <row r="36" spans="1:58" ht="15" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="BF36" s="6"/>
+    </row>
+    <row r="37" spans="1:58" ht="15" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="BF37" s="6"/>
+    </row>
+    <row r="38" spans="1:58" ht="15" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="BF38" s="6"/>
+    </row>
+    <row r="39" spans="1:58" ht="15" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="BF39" s="6"/>
+    </row>
+    <row r="40" spans="1:58" ht="15" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="BF40" s="6"/>
+    </row>
+    <row r="41" spans="1:58" ht="15" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="BF41" s="6"/>
+    </row>
+    <row r="42" spans="1:58" ht="15" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="BF42" s="6"/>
+    </row>
+    <row r="43" spans="1:58" ht="15" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="BF43" s="6"/>
+    </row>
+    <row r="44" spans="1:58" ht="15" customHeight="1">
+      <c r="A44" s="5"/>
+      <c r="BF44" s="6"/>
+    </row>
+    <row r="45" spans="1:58" ht="15" customHeight="1">
+      <c r="A45" s="5"/>
+      <c r="BF45" s="6"/>
+    </row>
+    <row r="46" spans="1:58" ht="15" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="BF46" s="6"/>
+    </row>
+    <row r="47" spans="1:58" ht="15" customHeight="1">
+      <c r="A47" s="5"/>
+      <c r="BF47" s="6"/>
+    </row>
+    <row r="48" spans="1:58" ht="15" customHeight="1">
+      <c r="A48" s="5"/>
+      <c r="BF48" s="6"/>
+    </row>
+    <row r="49" spans="1:58" ht="15" customHeight="1">
+      <c r="A49" s="5"/>
+      <c r="BF49" s="6"/>
+    </row>
+    <row r="50" spans="1:58" ht="15" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="8"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="8"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="8"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" s="8"/>
+      <c r="BC50" s="8"/>
+      <c r="BD50" s="8"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/member/design/画面遷移図.xlsx
+++ b/member/design/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ytaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBE75BF-C608-4624-B37A-142F5D9CC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{395A5C71-261E-4CC9-BBCB-41C5660A983A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="7650" windowHeight="8730" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,46 +398,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,6 +668,257 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A69CFCB-51C0-6489-D2C0-47F7307493BC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{09EEF754-965C-C625-17D6-47C871980420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1009650"/>
+          <a:ext cx="2552700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>権限が一般の場合の画面遷移図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3828A595-CB51-4E6F-9F6E-0E51D9DEEFE2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0A69CFCB-51C0-6489-D2C0-47F7307493BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5114925"/>
+          <a:ext cx="2638425" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>権限が管理者の場合の画面遷移図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -983,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A46B77C-8CAF-4120-AEC1-72434039BFF0}">
   <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CF4" sqref="CF4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -993,144 +1244,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="24" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="16" t="s">
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="19" t="s">
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="15">
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="25">
         <v>45206</v>
       </c>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="17" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="19" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="21" t="s">
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1">
       <c r="A4" s="2"/>
@@ -1457,11 +1708,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -1470,6 +1716,11 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
